--- a/LG_기록.xlsx
+++ b/LG_기록.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="투수" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="포수" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="내야수" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="외야수" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="투수" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,6 +428,2484 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:AA4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>선수명</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>포지션</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>AVG</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>TB</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>RBI</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>IBB</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>HBP</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>GDP</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>SLG</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>OBP</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>OPS</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>RISP</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>PH-BA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>허도환</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>포수</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E2" t="n">
+        <v>36</v>
+      </c>
+      <c r="F2" t="n">
+        <v>48</v>
+      </c>
+      <c r="G2" t="n">
+        <v>44</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>11</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>17</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>11</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.669</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>유강남</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>포수</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="E3" t="n">
+        <v>79</v>
+      </c>
+      <c r="F3" t="n">
+        <v>288</v>
+      </c>
+      <c r="G3" t="n">
+        <v>253</v>
+      </c>
+      <c r="H3" t="n">
+        <v>37</v>
+      </c>
+      <c r="I3" t="n">
+        <v>62</v>
+      </c>
+      <c r="J3" t="n">
+        <v>11</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4</v>
+      </c>
+      <c r="M3" t="n">
+        <v>85</v>
+      </c>
+      <c r="N3" t="n">
+        <v>28</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>25</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>6</v>
+      </c>
+      <c r="T3" t="n">
+        <v>58</v>
+      </c>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.336</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.326</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.662</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.277</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>박재욱</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>포수</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AA11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>선수명</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>포지션</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>AVG</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>TB</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>RBI</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>IBB</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>HBP</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>GDP</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>SLG</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>OBP</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>OPS</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>RISP</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>PH-BA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>채은성</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="E2" t="n">
+        <v>70</v>
+      </c>
+      <c r="F2" t="n">
+        <v>296</v>
+      </c>
+      <c r="G2" t="n">
+        <v>262</v>
+      </c>
+      <c r="H2" t="n">
+        <v>29</v>
+      </c>
+      <c r="I2" t="n">
+        <v>83</v>
+      </c>
+      <c r="J2" t="n">
+        <v>17</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>9</v>
+      </c>
+      <c r="M2" t="n">
+        <v>129</v>
+      </c>
+      <c r="N2" t="n">
+        <v>54</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>18</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S2" t="n">
+        <v>10</v>
+      </c>
+      <c r="T2" t="n">
+        <v>42</v>
+      </c>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.492</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>문보경</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.307</v>
+      </c>
+      <c r="E3" t="n">
+        <v>68</v>
+      </c>
+      <c r="F3" t="n">
+        <v>240</v>
+      </c>
+      <c r="G3" t="n">
+        <v>218</v>
+      </c>
+      <c r="H3" t="n">
+        <v>25</v>
+      </c>
+      <c r="I3" t="n">
+        <v>67</v>
+      </c>
+      <c r="J3" t="n">
+        <v>13</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>97</v>
+      </c>
+      <c r="N3" t="n">
+        <v>29</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>19</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>35</v>
+      </c>
+      <c r="U3" t="n">
+        <v>6</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.8080000000000001</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.298</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>손호영</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="E4" t="n">
+        <v>32</v>
+      </c>
+      <c r="F4" t="n">
+        <v>74</v>
+      </c>
+      <c r="G4" t="n">
+        <v>66</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12</v>
+      </c>
+      <c r="I4" t="n">
+        <v>17</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3</v>
+      </c>
+      <c r="M4" t="n">
+        <v>30</v>
+      </c>
+      <c r="N4" t="n">
+        <v>12</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>6</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>13</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.474</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>오지환</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="E5" t="n">
+        <v>81</v>
+      </c>
+      <c r="F5" t="n">
+        <v>324</v>
+      </c>
+      <c r="G5" t="n">
+        <v>286</v>
+      </c>
+      <c r="H5" t="n">
+        <v>41</v>
+      </c>
+      <c r="I5" t="n">
+        <v>72</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>13</v>
+      </c>
+      <c r="M5" t="n">
+        <v>126</v>
+      </c>
+      <c r="N5" t="n">
+        <v>48</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>31</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="n">
+        <v>58</v>
+      </c>
+      <c r="U5" t="n">
+        <v>6</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.441</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.771</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>이상호</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E6" t="n">
+        <v>44</v>
+      </c>
+      <c r="F6" t="n">
+        <v>53</v>
+      </c>
+      <c r="G6" t="n">
+        <v>48</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+      <c r="I6" t="n">
+        <v>12</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>14</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.292</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.586</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.308</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>송찬의</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="E7" t="n">
+        <v>28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>70</v>
+      </c>
+      <c r="G7" t="n">
+        <v>64</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+      <c r="I7" t="n">
+        <v>14</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" t="n">
+        <v>23</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="n">
+        <v>21</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.271</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>서건창</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.212</v>
+      </c>
+      <c r="E8" t="n">
+        <v>47</v>
+      </c>
+      <c r="F8" t="n">
+        <v>151</v>
+      </c>
+      <c r="G8" t="n">
+        <v>137</v>
+      </c>
+      <c r="H8" t="n">
+        <v>24</v>
+      </c>
+      <c r="I8" t="n">
+        <v>29</v>
+      </c>
+      <c r="J8" t="n">
+        <v>7</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>39</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>10</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="n">
+        <v>25</v>
+      </c>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.553</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>김민성</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="E9" t="n">
+        <v>56</v>
+      </c>
+      <c r="F9" t="n">
+        <v>106</v>
+      </c>
+      <c r="G9" t="n">
+        <v>94</v>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+      <c r="I9" t="n">
+        <v>19</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>22</v>
+      </c>
+      <c r="N9" t="n">
+        <v>8</v>
+      </c>
+      <c r="O9" t="n">
+        <v>3</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>6</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="n">
+        <v>18</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.167</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>이영빈</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>26</v>
+      </c>
+      <c r="F10" t="n">
+        <v>49</v>
+      </c>
+      <c r="G10" t="n">
+        <v>45</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>9</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>12</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>15</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.532</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.083</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>루이즈</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="E11" t="n">
+        <v>27</v>
+      </c>
+      <c r="F11" t="n">
+        <v>94</v>
+      </c>
+      <c r="G11" t="n">
+        <v>84</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+      <c r="I11" t="n">
+        <v>13</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>22</v>
+      </c>
+      <c r="N11" t="n">
+        <v>6</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>13</v>
+      </c>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.262</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.496</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AA11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>선수명</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>포지션</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>AVG</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>TB</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>RBI</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>IBB</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>HBP</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>GDP</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>SLG</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>OBP</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>OPS</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>RISP</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>PH-BA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>문성주</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="E2" t="n">
+        <v>55</v>
+      </c>
+      <c r="F2" t="n">
+        <v>214</v>
+      </c>
+      <c r="G2" t="n">
+        <v>174</v>
+      </c>
+      <c r="H2" t="n">
+        <v>31</v>
+      </c>
+      <c r="I2" t="n">
+        <v>60</v>
+      </c>
+      <c r="J2" t="n">
+        <v>10</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M2" t="n">
+        <v>83</v>
+      </c>
+      <c r="N2" t="n">
+        <v>26</v>
+      </c>
+      <c r="O2" t="n">
+        <v>6</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>31</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2</v>
+      </c>
+      <c r="T2" t="n">
+        <v>20</v>
+      </c>
+      <c r="U2" t="n">
+        <v>6</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.477</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.447</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.924</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.333</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>이형종</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>11</v>
+      </c>
+      <c r="G3" t="n">
+        <v>9</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.899</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>홍창기</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="E4" t="n">
+        <v>64</v>
+      </c>
+      <c r="F4" t="n">
+        <v>299</v>
+      </c>
+      <c r="G4" t="n">
+        <v>254</v>
+      </c>
+      <c r="H4" t="n">
+        <v>46</v>
+      </c>
+      <c r="I4" t="n">
+        <v>80</v>
+      </c>
+      <c r="J4" t="n">
+        <v>13</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>104</v>
+      </c>
+      <c r="N4" t="n">
+        <v>32</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>30</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T4" t="n">
+        <v>37</v>
+      </c>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.383</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>박해민</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="E5" t="n">
+        <v>82</v>
+      </c>
+      <c r="F5" t="n">
+        <v>366</v>
+      </c>
+      <c r="G5" t="n">
+        <v>316</v>
+      </c>
+      <c r="H5" t="n">
+        <v>54</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91</v>
+      </c>
+      <c r="J5" t="n">
+        <v>10</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
+      <c r="M5" t="n">
+        <v>113</v>
+      </c>
+      <c r="N5" t="n">
+        <v>31</v>
+      </c>
+      <c r="O5" t="n">
+        <v>6</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>33</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>7</v>
+      </c>
+      <c r="T5" t="n">
+        <v>45</v>
+      </c>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>김현수</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="E6" t="n">
+        <v>81</v>
+      </c>
+      <c r="F6" t="n">
+        <v>352</v>
+      </c>
+      <c r="G6" t="n">
+        <v>314</v>
+      </c>
+      <c r="H6" t="n">
+        <v>54</v>
+      </c>
+      <c r="I6" t="n">
+        <v>89</v>
+      </c>
+      <c r="J6" t="n">
+        <v>15</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>18</v>
+      </c>
+      <c r="M6" t="n">
+        <v>160</v>
+      </c>
+      <c r="N6" t="n">
+        <v>68</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>34</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>35</v>
+      </c>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.871</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>이재원</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="E7" t="n">
+        <v>44</v>
+      </c>
+      <c r="F7" t="n">
+        <v>161</v>
+      </c>
+      <c r="G7" t="n">
+        <v>145</v>
+      </c>
+      <c r="H7" t="n">
+        <v>21</v>
+      </c>
+      <c r="I7" t="n">
+        <v>34</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>8</v>
+      </c>
+      <c r="M7" t="n">
+        <v>64</v>
+      </c>
+      <c r="N7" t="n">
+        <v>28</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" t="n">
+        <v>6</v>
+      </c>
+      <c r="T7" t="n">
+        <v>51</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.441</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.752</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.262</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>이천웅</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="E8" t="n">
+        <v>15</v>
+      </c>
+      <c r="F8" t="n">
+        <v>19</v>
+      </c>
+      <c r="G8" t="n">
+        <v>16</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.316</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>박용택</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>신민재</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>안익훈</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>7</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AQ25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -661,17 +3142,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>95 1/3</t>
+          <t>102</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3.12</v>
+        <v>3.09</v>
       </c>
       <c r="F2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -683,31 +3164,31 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.636</v>
+        <v>0.667</v>
       </c>
       <c r="L2" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="Q2" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="R2" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,19 +3197,19 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="Y2" t="n">
-        <v>1516</v>
+        <v>1622</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.218</v>
+        <v>0.216</v>
       </c>
       <c r="AA2" t="n">
         <v>9</v>
@@ -752,10 +3233,10 @@
         <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ2" t="n">
         <v>0</v>
@@ -773,13 +3254,13 @@
         <v>6</v>
       </c>
       <c r="AO2" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="AP2" t="n">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="3">
@@ -798,17 +3279,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92 2/3</t>
+          <t>98 2/3</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2.43</v>
+        <v>2.28</v>
       </c>
       <c r="F3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -820,22 +3301,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.917</v>
+        <v>0.923</v>
       </c>
       <c r="L3" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O3" t="n">
         <v>2</v>
       </c>
       <c r="P3" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Q3" t="n">
         <v>28</v>
@@ -844,7 +3325,7 @@
         <v>25</v>
       </c>
       <c r="S3" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -853,19 +3334,19 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="Y3" t="n">
-        <v>1387</v>
+        <v>1476</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.227</v>
+        <v>0.228</v>
       </c>
       <c r="AA3" t="n">
         <v>5</v>
@@ -883,16 +3364,16 @@
         <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ3" t="n">
         <v>0</v>
@@ -907,16 +3388,16 @@
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO3" t="n">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="AP3" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="4">
@@ -935,14 +3416,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>69 1/3</t>
+          <t>72 2/3</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4.41</v>
+        <v>5.2</v>
       </c>
       <c r="F4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" t="n">
         <v>7</v>
@@ -960,28 +3441,28 @@
         <v>0.636</v>
       </c>
       <c r="L4" t="n">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="M4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P4" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q4" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="R4" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="S4" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -996,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="Y4" t="n">
-        <v>1167</v>
+        <v>1251</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.273</v>
+        <v>0.29</v>
       </c>
       <c r="AA4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB4" t="n">
         <v>3</v>
@@ -1020,13 +3501,13 @@
         <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG4" t="n">
         <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI4" t="n">
         <v>7</v>
@@ -1044,13 +3525,13 @@
         <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO4" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AP4" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.93</v>
@@ -1072,17 +3553,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>52 1/3</t>
+          <t>57 1/3</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.61</v>
+        <v>3.92</v>
       </c>
       <c r="F5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
@@ -1094,10 +3575,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="L5" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
@@ -1109,16 +3590,16 @@
         <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q5" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R5" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="S5" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1133,16 +3614,16 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="Y5" t="n">
-        <v>852</v>
+        <v>941</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.299</v>
+        <v>0.308</v>
       </c>
       <c r="AA5" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
@@ -1151,22 +3632,22 @@
         <v>2</v>
       </c>
       <c r="AD5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
         <v>1</v>
       </c>
       <c r="AF5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ5" t="n">
         <v>0</v>
@@ -1184,13 +3665,13 @@
         <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AP5" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="6">
@@ -1209,14 +3690,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>45 2/3</t>
+          <t>50 2/3</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5.32</v>
+        <v>5.51</v>
       </c>
       <c r="F6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" t="n">
         <v>3</v>
@@ -1234,28 +3715,28 @@
         <v>0.375</v>
       </c>
       <c r="L6" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="M6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N6" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O6" t="n">
         <v>4</v>
       </c>
       <c r="P6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Q6" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="R6" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="S6" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1270,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="Y6" t="n">
-        <v>772</v>
+        <v>863</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.289</v>
+        <v>0.292</v>
       </c>
       <c r="AA6" t="n">
         <v>7</v>
@@ -1294,13 +3775,13 @@
         <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG6" t="n">
         <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI6" t="n">
         <v>3</v>
@@ -1321,13 +3802,13 @@
         <v>3</v>
       </c>
       <c r="AO6" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP6" t="n">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.82</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="7">
@@ -1749,7 +4230,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>김진성</t>
+          <t>조원태</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1759,80 +4240,82 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3.71</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>6</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L10" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O10" t="n">
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
         <v>14</v>
       </c>
-      <c r="S10" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>2</v>
-      </c>
-      <c r="X10" t="n">
-        <v>143</v>
-      </c>
       <c r="Y10" t="n">
-        <v>531</v>
+        <v>65</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.254</v>
+        <v>0.091</v>
       </c>
       <c r="AA10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -1841,10 +4324,10 @@
         <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
@@ -1856,28 +4339,28 @@
         <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AL10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AM10" t="n">
         <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO10" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="AP10" t="n">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.51</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="11">
@@ -2313,37 +4796,37 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35 2/3</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3.82</v>
+        <v>4.29</v>
       </c>
       <c r="F14" t="n">
+        <v>33</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
         <v>30</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>26</v>
-      </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N14" t="n">
         <v>10</v>
@@ -2352,16 +4835,16 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q14" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="R14" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="S14" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -2376,16 +4859,16 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="Y14" t="n">
-        <v>494</v>
+        <v>539</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.218</v>
+        <v>0.229</v>
       </c>
       <c r="AA14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB14" t="n">
         <v>1</v>
@@ -2427,13 +4910,13 @@
         <v>3</v>
       </c>
       <c r="AO14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP14" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.62</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="15">
@@ -2442,7 +4925,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>조원태</t>
+          <t>김진성</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2452,55 +4935,53 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>36 2/3</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>3.44</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.625</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N15" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="S15" t="n">
-        <v>0.75</v>
+        <v>1.23</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -2512,34 +4993,34 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="Y15" t="n">
-        <v>65</v>
+        <v>573</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.091</v>
+        <v>0.254</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG15" t="n">
         <v>0</v>
@@ -2551,28 +5032,28 @@
         <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AK15" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO15" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="AP15" t="n">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="AQ15" t="n">
-        <v>2.33</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -2591,125 +5072,125 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>11 1/3</t>
+          <t>14 1/3</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.79</v>
+        <v>1.26</v>
       </c>
       <c r="F16" t="n">
+        <v>11</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>9</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>56</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>217</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP16" t="n">
         <v>8</v>
       </c>
-      <c r="G16" t="n">
-        <v>3</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>5</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>42</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>166</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0.128</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>7</v>
-      </c>
       <c r="AQ16" t="n">
-        <v>1.86</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="17">
@@ -2718,7 +5199,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>오석주</t>
+          <t>이정용</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2728,55 +5209,53 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>38 2/3</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>3.26</v>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>14</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4</v>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="S17" t="n">
-        <v>0.67</v>
+        <v>1.03</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -2788,34 +5267,34 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X17" t="n">
+        <v>156</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>584</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="AA17" t="n">
         <v>11</v>
       </c>
-      <c r="Y17" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0.182</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
       <c r="AB17" t="n">
         <v>1</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG17" t="n">
         <v>0</v>
@@ -2827,28 +5306,28 @@
         <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK17" t="n">
         <v>2</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AM17" t="n">
         <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO17" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="AP17" t="n">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.33</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="18">
@@ -2857,7 +5336,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>이정용</t>
+          <t>오석주</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2867,53 +5346,55 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>37 2/3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="F18" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>14</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.4</v>
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L18" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="Q18" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="R18" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="S18" t="n">
-        <v>1.01</v>
+        <v>0.67</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -2925,34 +5406,34 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="Y18" t="n">
-        <v>565</v>
+        <v>36</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.216</v>
+        <v>0.182</v>
       </c>
       <c r="AA18" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB18" t="n">
         <v>1</v>
       </c>
       <c r="AC18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="n">
         <v>0</v>
@@ -2964,28 +5445,28 @@
         <v>0</v>
       </c>
       <c r="AJ18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK18" t="n">
         <v>2</v>
       </c>
       <c r="AL18" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AM18" t="n">
         <v>0</v>
       </c>
       <c r="AN18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="AP18" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.62</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="19">
@@ -2994,7 +5475,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>최성훈</t>
+          <t>진해수</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3004,17 +5485,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>13 1/3</t>
+          <t>27 1/3</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="F19" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -3023,36 +5504,34 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
+        <v>6</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q19" t="n">
         <v>8</v>
       </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>6</v>
-      </c>
       <c r="R19" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S19" t="n">
-        <v>1.58</v>
+        <v>1.21</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -3064,34 +5543,34 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" t="n">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="Y19" t="n">
-        <v>200</v>
+        <v>426</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.26</v>
+        <v>0.255</v>
       </c>
       <c r="AA19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG19" t="n">
         <v>0</v>
@@ -3103,28 +5582,28 @@
         <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL19" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AM19" t="n">
         <v>0</v>
       </c>
       <c r="AN19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO19" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="AP19" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.46</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="20">
@@ -3143,14 +5622,14 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>20 2/3</t>
+          <t>22 2/3</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2.61</v>
+        <v>2.38</v>
       </c>
       <c r="F20" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -3162,25 +5641,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K20" t="n">
         <v>0.5</v>
       </c>
       <c r="L20" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O20" t="n">
         <v>5</v>
       </c>
       <c r="P20" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q20" t="n">
         <v>7</v>
@@ -3189,7 +5668,7 @@
         <v>6</v>
       </c>
       <c r="S20" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -3204,13 +5683,13 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="Y20" t="n">
-        <v>385</v>
+        <v>416</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.208</v>
+        <v>0.212</v>
       </c>
       <c r="AA20" t="n">
         <v>2</v>
@@ -3246,7 +5725,7 @@
         <v>3</v>
       </c>
       <c r="AL20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM20" t="n">
         <v>0</v>
@@ -3255,13 +5734,13 @@
         <v>1</v>
       </c>
       <c r="AO20" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.67</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="21">
@@ -3270,7 +5749,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>정우영</t>
+          <t>최성훈</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3280,125 +5759,127 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>35 2/3</t>
+          <t>15 2/3</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="F21" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>20</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.667</v>
+        <v>1</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L21" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
+        <v>8</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>6</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>71</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>228</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.241</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO21" t="n">
         <v>23</v>
       </c>
-      <c r="O21" t="n">
-        <v>2</v>
-      </c>
-      <c r="P21" t="n">
-        <v>22</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>9</v>
-      </c>
-      <c r="R21" t="n">
-        <v>9</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>3</v>
-      </c>
-      <c r="X21" t="n">
-        <v>152</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>575</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0.228</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>63</v>
-      </c>
       <c r="AP21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ21" t="n">
-        <v>4.85</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="22">
@@ -3407,7 +5888,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>함덕주</t>
+          <t>정우영</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3417,55 +5898,53 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>12 2/3</t>
+          <t>36 2/3</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2.13</v>
+        <v>2.21</v>
       </c>
       <c r="F22" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>21</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.667</v>
       </c>
       <c r="L22" t="n">
+        <v>29</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>23</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2</v>
+      </c>
+      <c r="P22" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q22" t="n">
         <v>9</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>11</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>3</v>
-      </c>
       <c r="R22" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S22" t="n">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -3477,31 +5956,31 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X22" t="n">
-        <v>58</v>
+        <v>155</v>
       </c>
       <c r="Y22" t="n">
-        <v>237</v>
+        <v>590</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.214</v>
+        <v>0.223</v>
       </c>
       <c r="AA22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB22" t="n">
         <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF22" t="n">
         <v>0</v>
@@ -3516,28 +5995,28 @@
         <v>0</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL22" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="AM22" t="n">
         <v>0</v>
       </c>
       <c r="AN22" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AO22" t="n">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="AP22" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.83</v>
+        <v>4.64</v>
       </c>
     </row>
     <row r="23">
@@ -3546,7 +6025,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>진해수</t>
+          <t>함덕주</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3556,17 +6035,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>12 2/3</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2.08</v>
+        <v>2.13</v>
       </c>
       <c r="F23" t="n">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -3575,34 +6054,36 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>6</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L23" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O23" t="n">
         <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Q23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S23" t="n">
-        <v>1.19</v>
+        <v>1.58</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -3614,34 +6095,34 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="Y23" t="n">
-        <v>391</v>
+        <v>237</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.253</v>
+        <v>0.214</v>
       </c>
       <c r="AA23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
         <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG23" t="n">
         <v>0</v>
@@ -3653,28 +6134,28 @@
         <v>0</v>
       </c>
       <c r="AJ23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL23" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AM23" t="n">
         <v>0</v>
       </c>
       <c r="AN23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO23" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AP23" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.25</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="24">
@@ -3693,14 +6174,14 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="F24" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -3709,7 +6190,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -3718,10 +6199,10 @@
         <v>0.5</v>
       </c>
       <c r="L24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N24" t="n">
         <v>14</v>
@@ -3730,16 +6211,16 @@
         <v>1</v>
       </c>
       <c r="P24" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q24" t="n">
+        <v>8</v>
+      </c>
+      <c r="R24" t="n">
         <v>7</v>
       </c>
-      <c r="R24" t="n">
-        <v>6</v>
-      </c>
       <c r="S24" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -3754,13 +6235,13 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="Y24" t="n">
-        <v>503</v>
+        <v>545</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.196</v>
+        <v>0.189</v>
       </c>
       <c r="AA24" t="n">
         <v>5</v>
@@ -3793,25 +6274,25 @@
         <v>1</v>
       </c>
       <c r="AK24" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO24" t="n">
         <v>32</v>
       </c>
-      <c r="AL24" t="n">
-        <v>24</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>29</v>
-      </c>
       <c r="AP24" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="25">
